--- a/assets/dataset_clinicas.xlsx
+++ b/assets/dataset_clinicas.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131AA674-2813-4701-8527-38108F7862E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Clinica</t>
   </si>
@@ -40,74 +34,65 @@
     <t>Feedback_Clientes</t>
   </si>
   <si>
+    <t>Probabilidade_Fechamento</t>
+  </si>
+  <si>
+    <t>Score_Clinica</t>
+  </si>
+  <si>
+    <t>Score_Normalizado</t>
+  </si>
+  <si>
+    <t>FaceCare</t>
+  </si>
+  <si>
     <t>Clínica Estética Bella</t>
   </si>
   <si>
+    <t>Beauty Concept</t>
+  </si>
+  <si>
+    <t>Skin Perfect</t>
+  </si>
+  <si>
+    <t>White Dental</t>
+  </si>
+  <si>
+    <t>Odonto Life</t>
+  </si>
+  <si>
+    <t>Glow Beauty</t>
+  </si>
+  <si>
+    <t>Dermaclin</t>
+  </si>
+  <si>
+    <t>Vital Estética</t>
+  </si>
+  <si>
+    <t>Odonto Prime</t>
+  </si>
+  <si>
+    <t>Elegance Derma</t>
+  </si>
+  <si>
+    <t>Harmonia Face</t>
+  </si>
+  <si>
+    <t>Smile Center</t>
+  </si>
+  <si>
     <t>Sorriso Odonto</t>
   </si>
   <si>
-    <t>Dermaclin</t>
-  </si>
-  <si>
-    <t>Harmonia Face</t>
-  </si>
-  <si>
-    <t>Odonto Prime</t>
-  </si>
-  <si>
-    <t>Vital Estética</t>
-  </si>
-  <si>
     <t>Top Smile</t>
-  </si>
-  <si>
-    <t>Glow Beauty</t>
-  </si>
-  <si>
-    <t>White Dental</t>
-  </si>
-  <si>
-    <t>FaceCare</t>
-  </si>
-  <si>
-    <t>Beauty Concept</t>
-  </si>
-  <si>
-    <t>Skin Perfect</t>
-  </si>
-  <si>
-    <t>Odonto Life</t>
-  </si>
-  <si>
-    <t>Smile Center</t>
-  </si>
-  <si>
-    <t>Elegance Derma</t>
-  </si>
-  <si>
-    <t>Bom</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>Ruim</t>
-  </si>
-  <si>
-    <t>Interessado</t>
-  </si>
-  <si>
-    <t>Não Interessado</t>
-  </si>
-  <si>
-    <t>Pouco Interessado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,21 +155,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +199,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -256,7 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -291,10 +267,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,24 +442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,305 +468,449 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
+        <v>67194</v>
+      </c>
+      <c r="C2">
+        <v>260</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0.8274563216630256</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>201583.0160831513</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
         <v>45795</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>230</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0.8725056264596475</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>197409.7813229824</v>
+      </c>
+      <c r="I3">
+        <v>969.3457101603209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>117498</v>
+      </c>
+      <c r="C4">
+        <v>413</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0.3070239852800135</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0.25</v>
+      </c>
+      <c r="H4">
+        <v>190683.1992640007</v>
+      </c>
+      <c r="I4">
+        <v>919.9359338317868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>142727</v>
+      </c>
+      <c r="C5">
+        <v>121</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.6300178274831856</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0.25</v>
+      </c>
+      <c r="H5">
+        <v>184343.1913741593</v>
+      </c>
+      <c r="I5">
+        <v>873.3657189720828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>112386</v>
+      </c>
+      <c r="C6">
+        <v>376</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0.1275108168921747</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+      <c r="H6">
+        <v>180166.5408446087</v>
+      </c>
+      <c r="I6">
+        <v>842.6863387670954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>74131</v>
+      </c>
+      <c r="C7">
+        <v>352</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0.3493688608715287</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>179778.1430435764</v>
+      </c>
+      <c r="I7">
+        <v>839.8333819002606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>36265</v>
+      </c>
+      <c r="C8">
+        <v>291</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0.4961415280890161</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>175744.7764044508</v>
+      </c>
+      <c r="I8">
+        <v>810.2064864364537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>133694</v>
+      </c>
+      <c r="C9">
+        <v>408</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0.3436910153386966</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.25</v>
+      </c>
+      <c r="H9">
+        <v>157374.3507669348</v>
+      </c>
+      <c r="I9">
+        <v>675.2674321216911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>106820</v>
+      </c>
+      <c r="C10">
+        <v>393</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0.452121994991681</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.25</v>
+      </c>
+      <c r="H10">
+        <v>154730.699749584</v>
+      </c>
+      <c r="I10">
+        <v>655.8486241278765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>140268</v>
+      </c>
+      <c r="C11">
+        <v>443</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0.6473864212097256</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>134538.3210604863</v>
+      </c>
+      <c r="I11">
+        <v>507.5265036481003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>46023</v>
+      </c>
+      <c r="C12">
+        <v>444</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.5373682234746238</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>120764.1111737312</v>
+      </c>
+      <c r="I12">
+        <v>406.3487251509055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>149879</v>
+      </c>
+      <c r="C13">
+        <v>357</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0.1781376912051071</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.25</v>
+      </c>
+      <c r="H13">
+        <v>113941.9845602554</v>
+      </c>
+      <c r="I13">
+        <v>356.2371310157095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="E2">
-        <v>0.87250562645964747</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+      <c r="B14">
+        <v>90263</v>
+      </c>
+      <c r="C14">
+        <v>335</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0.5160544169422486</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>112948.6208471124</v>
+      </c>
+      <c r="I14">
+        <v>348.9404269171193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
         <v>30860</v>
       </c>
-      <c r="C3">
+      <c r="C15">
         <v>249</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>0.74671787849316895</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>133694</v>
-      </c>
-      <c r="C4">
-        <v>408</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>0.34369101533869661</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>149879</v>
-      </c>
-      <c r="C5">
-        <v>357</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>0.17813769120510711</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>140268</v>
-      </c>
-      <c r="C6">
-        <v>443</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>0.64738642120972556</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>106820</v>
-      </c>
-      <c r="C7">
-        <v>393</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>0.45212199499168099</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.746717878493169</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>76643.69392465845</v>
+      </c>
+      <c r="I15">
+        <v>82.26437909175583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
         <v>84886</v>
       </c>
-      <c r="C8">
+      <c r="C16">
         <v>485</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>0.1976305878758231</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>36265</v>
-      </c>
-      <c r="C9">
-        <v>291</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>0.49614152808901613</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>112386</v>
-      </c>
-      <c r="C10">
-        <v>376</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>0.12751081689217469</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>67194</v>
-      </c>
-      <c r="C11">
-        <v>260</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>0.82745632166302563</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>117498</v>
-      </c>
-      <c r="C12">
-        <v>413</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>0.30702398528001351</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>142727</v>
-      </c>
-      <c r="C13">
-        <v>121</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>0.63001782748318558</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>74131</v>
-      </c>
-      <c r="C14">
-        <v>352</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>0.34936886087152869</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>90263</v>
-      </c>
-      <c r="C15">
-        <v>335</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>0.51605441694224863</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>46023</v>
-      </c>
-      <c r="C16">
-        <v>444</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>0.53736822347462376</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>65444.32939379116</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
